--- a/Excel/SpawnConfig.xlsx
+++ b/Excel/SpawnConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EEF706-638D-4ACA-8900-BAE855D32A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D24B2A8-653A-4869-804E-0C92412D524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1170" windowWidth="20475" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -547,9 +547,7 @@
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="18"/>
       <c r="F4" s="10"/>
       <c r="G4" s="14"/>
@@ -587,9 +585,7 @@
       <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="18"/>
       <c r="F6" s="10"/>
       <c r="G6" s="14"/>

--- a/Excel/SpawnConfig.xlsx
+++ b/Excel/SpawnConfig.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D24B2A8-653A-4869-804E-0C92412D524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B36C9F-0B81-4743-BF99-E88AE19C8DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="3885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +109,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -177,10 +170,6 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,11 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -469,15 +458,15 @@
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="4" customWidth="1"/>
-    <col min="9" max="10" width="36.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="20.75" style="2"/>
+    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="4" customWidth="1"/>
+    <col min="8" max="9" width="36.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -492,12 +481,11 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,12 +500,11 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -530,14 +517,13 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -548,14 +534,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="10"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -568,14 +553,13 @@
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="10"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -586,51 +570,48 @@
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="10"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/Excel/SpawnConfig.xlsx
+++ b/Excel/SpawnConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGitHub\Unity\BasePackage\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B36C9F-0B81-4743-BF99-E88AE19C8DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31B42B7-53CF-460F-A11D-FD940228712A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -43,23 +43,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>Prefabs/Test/Image_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Test/Image_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +433,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -468,16 +452,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -506,7 +490,7 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -524,15 +508,8 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="14"/>
@@ -541,18 +518,9 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
@@ -560,15 +528,8 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="14"/>
